--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2006,20 +2006,20 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,55 +731,67 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <v>23800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>-100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,26 +801,32 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
         <v>23800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -979,26 +1038,32 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>21400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1021,26 +1088,32 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,26 +1123,32 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>20600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-16100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>22000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-800</v>
       </c>
       <c r="J23" s="3">
         <v>-1500</v>
       </c>
       <c r="K23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-16600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>21600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-16600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1285,11 +1406,11 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1369,55 +1508,67 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-16600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-16600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>151700</v>
+      </c>
+      <c r="F41" s="3">
         <v>136400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>75000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>25500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>43700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>24400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,13 +1771,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -1607,10 +1792,10 @@
         <v>400</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
@@ -1619,10 +1804,16 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1841,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1876,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,42 +1911,54 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>680600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>503700</v>
+      </c>
+      <c r="F47" s="3">
         <v>332500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>260000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>178200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>134100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>80900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>45000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>25300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -1752,10 +1967,10 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
@@ -1764,10 +1979,16 @@
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>11700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>19400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>866200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>726400</v>
+      </c>
+      <c r="F54" s="3">
         <v>536600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>395700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>264000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>219900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>142500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>94200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>74700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,19 +2256,25 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2015,46 +2282,58 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>748000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>629200</v>
+      </c>
+      <c r="F59" s="3">
         <v>488000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>350200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>246000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>195600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>111400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>64900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>35600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,13 +2391,19 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>19000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2123,25 +2414,31 @@
         <v>1100</v>
       </c>
       <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>11700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>19400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>780600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>640100</v>
+      </c>
+      <c r="F66" s="3">
         <v>511600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>369800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>255600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>205900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>127000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>77500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>77600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,13 +2686,19 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-41600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-19500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-41100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-39300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-37700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-36800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>86300</v>
+      </c>
+      <c r="F76" s="3">
         <v>25100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>26000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>16700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-16600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>-500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>-100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-81300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>83800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-179300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-165200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-69800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-64300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-68200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-56500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-35500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-18800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-7100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>199600</v>
+      </c>
+      <c r="F100" s="3">
         <v>130800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>113600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>47600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>157200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-34200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>29900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>8300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F102" s="3">
         <v>61400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>49500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-18200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>19300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>14100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>8000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -737,26 +741,29 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>23800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,39 +771,42 @@
         <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>-100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>7500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -807,26 +817,29 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>23800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,48 +1018,52 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E17" s="3">
         <v>-400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-5100</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -1044,26 +1074,29 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>21400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,13 +1110,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>900</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1094,31 +1128,34 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-6000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1129,26 +1166,29 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>20600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1700</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,69 +1222,75 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1500</v>
       </c>
       <c r="J23" s="3">
         <v>-1500</v>
       </c>
       <c r="K23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>100</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1700</v>
       </c>
       <c r="J27" s="3">
         <v>-1700</v>
       </c>
       <c r="K27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,8 +1473,8 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,13 +1564,16 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-900</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -1514,61 +1584,67 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1700</v>
       </c>
       <c r="J33" s="3">
         <v>-1700</v>
       </c>
       <c r="K33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1700</v>
       </c>
       <c r="J35" s="3">
         <v>-1700</v>
       </c>
       <c r="K35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E41" s="3">
         <v>100900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>151700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1789,31 +1882,34 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,43 +2019,49 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>818100</v>
+      </c>
+      <c r="E47" s="3">
         <v>680600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>503700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>332500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>260000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>178200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>134100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>80900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>45000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,7 +2069,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -1973,7 +2081,7 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
@@ -1985,10 +2093,13 @@
         <v>600</v>
       </c>
       <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>4400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1100</v>
       </c>
       <c r="G52" s="3">
         <v>1100</v>
       </c>
       <c r="H52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>987500</v>
+      </c>
+      <c r="E54" s="3">
         <v>866200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>726400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>536600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>395700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>264000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>219900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>142500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>94200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,20 +2407,20 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2294,46 +2428,52 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>886400</v>
+      </c>
+      <c r="E59" s="3">
         <v>748000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>629200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>488000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>350200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>246000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>195600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>111400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2397,13 +2540,16 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>19000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2420,25 +2566,28 @@
         <v>1100</v>
       </c>
       <c r="H62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>905900</v>
+      </c>
+      <c r="E66" s="3">
         <v>780600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>640100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>511600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>369800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>255600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>205900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>127000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2692,13 +2860,16 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-53500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E76" s="3">
         <v>85600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>86300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1700</v>
       </c>
       <c r="J81" s="3">
         <v>-1700</v>
       </c>
       <c r="K81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,34 +3240,37 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>-500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>-100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E89" s="3">
         <v>7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-81300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>83800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-179300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-165200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-64300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-68200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-56500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E100" s="3">
         <v>120700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>199600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>130800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>113600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>47600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>157200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-34200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>61400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>49500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,80 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>8000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
@@ -744,73 +748,79 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>23800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
         <v>500</v>
       </c>
       <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>-100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="3">
         <v>7500</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
@@ -820,26 +830,29 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>23800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,55 +1045,59 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E17" s="3">
         <v>13100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1077,26 +1107,29 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>21400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,17 +1144,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1131,35 +1165,38 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1169,26 +1206,29 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>20600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1700</v>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,75 +1265,81 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1500</v>
       </c>
       <c r="K23" s="3">
         <v>-1500</v>
       </c>
       <c r="L23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>100</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1700</v>
       </c>
       <c r="K27" s="3">
         <v>-1700</v>
       </c>
       <c r="L27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,8 +1537,8 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,17 +1634,20 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1587,64 +1657,70 @@
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1700</v>
       </c>
       <c r="K33" s="3">
         <v>-1700</v>
       </c>
       <c r="L33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1700</v>
       </c>
       <c r="K35" s="3">
         <v>-1700</v>
       </c>
       <c r="L35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E41" s="3">
         <v>70300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>151700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>75000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1885,31 +1978,34 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2083,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,46 +2124,52 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>924300</v>
+      </c>
+      <c r="E47" s="3">
         <v>818100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>680600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>503700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>332500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>260000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>178200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>134100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>80900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>45000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2072,7 +2180,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -2084,7 +2192,7 @@
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
@@ -2096,10 +2204,13 @@
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
       </c>
       <c r="I52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1107600</v>
+      </c>
+      <c r="E54" s="3">
         <v>987500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>866200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>726400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>536600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>395700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>264000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>219900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>142500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>94200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2410,20 +2544,20 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2431,49 +2565,55 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E59" s="3">
         <v>886400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>748000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>629200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>488000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>350200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>246000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>195600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>111400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2543,13 +2686,16 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>19000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2569,25 +2715,28 @@
         <v>1100</v>
       </c>
       <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1027500</v>
+      </c>
+      <c r="E66" s="3">
         <v>905900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>780600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>640100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>511600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>369800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>255600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>205900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>127000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2863,13 +3031,16 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>1600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E76" s="3">
         <v>81600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>85600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1700</v>
       </c>
       <c r="K81" s="3">
         <v>-1700</v>
       </c>
       <c r="L81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>-500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-81300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>83800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-108100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-136400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-179300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-165200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-64300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-68200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-56500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E100" s="3">
         <v>122300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>120700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>199600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>130800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>113600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>47600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>157200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>61400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>49500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,86 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -751,79 +754,85 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>23800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>500</v>
       </c>
       <c r="G9" s="3">
+        <v>500</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>-100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7500</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -833,26 +842,29 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>23800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,61 +1071,65 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1110,26 +1139,29 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>21400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,20 +1177,21 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1168,38 +1201,41 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1209,26 +1245,29 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>20600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1700</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,81 +1307,87 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1500</v>
       </c>
       <c r="L23" s="3">
         <v>-1500</v>
       </c>
       <c r="M23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>100</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1700</v>
       </c>
       <c r="L27" s="3">
         <v>-1700</v>
       </c>
       <c r="M27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1540,8 +1600,8 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,20 +1703,23 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1660,67 +1729,73 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1700</v>
       </c>
       <c r="L33" s="3">
         <v>-1700</v>
       </c>
       <c r="M33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1700</v>
       </c>
       <c r="L35" s="3">
         <v>-1700</v>
       </c>
       <c r="M35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E41" s="3">
         <v>81500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>70300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>151700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>136400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>75000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,13 +2052,16 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -1981,31 +2073,34 @@
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,54 +2228,60 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>968600</v>
+      </c>
+      <c r="E47" s="3">
         <v>924300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>818100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>680600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>503700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>332500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>260000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>178200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>134100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>80900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>45000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -2183,7 +2290,7 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
@@ -2195,7 +2302,7 @@
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
@@ -2207,10 +2314,13 @@
         <v>600</v>
       </c>
       <c r="O48" s="3">
+        <v>600</v>
+      </c>
+      <c r="P48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1100</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
       </c>
       <c r="J52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1219900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1107600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>987500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>866200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>726400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>536600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>395700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>264000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>219900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>142500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>94200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2530,22 +2660,25 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2553,14 +2686,14 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2568,52 +2701,58 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1124900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1001000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>886400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>748000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>629200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>488000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>350200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>246000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>195600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>111400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2689,18 +2831,21 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>19000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
@@ -2718,25 +2863,28 @@
         <v>1100</v>
       </c>
       <c r="J62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1149200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1027500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>905900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>780600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>640100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>511600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>369800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>255600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>205900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>127000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3034,13 +3201,16 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>1600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-60100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-37700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E76" s="3">
         <v>80100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>81600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1700</v>
       </c>
       <c r="L81" s="3">
         <v>-1700</v>
       </c>
       <c r="M81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>-500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E89" s="3">
         <v>9600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-81300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>83800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,13 +3953,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-108100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-136400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-179300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-165200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-68200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E100" s="3">
         <v>109700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>122300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>120700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>199600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>130800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>113600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>47600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>157200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-34200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E102" s="3">
         <v>11200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>49500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>14500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
@@ -757,85 +761,91 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>23800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>500</v>
       </c>
       <c r="G9" s="3">
         <v>500</v>
       </c>
       <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>-100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>13400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -845,26 +855,29 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>23800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,67 +1098,71 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>20100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1142,26 +1172,29 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>21400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,23 +1211,24 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1204,41 +1238,44 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1248,26 +1285,29 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>20600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1700</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,87 +1350,93 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1500</v>
       </c>
       <c r="M23" s="3">
         <v>-1500</v>
       </c>
       <c r="N23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>100</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1700</v>
       </c>
       <c r="M27" s="3">
         <v>-1700</v>
       </c>
       <c r="N27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,37 +1632,40 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,23 +1773,26 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1732,70 +1802,76 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1700</v>
       </c>
       <c r="M33" s="3">
         <v>-1700</v>
       </c>
       <c r="N33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1700</v>
       </c>
       <c r="M35" s="3">
         <v>-1700</v>
       </c>
       <c r="N35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E41" s="3">
         <v>142000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>81500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>70300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>151700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>136400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>75000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2157,7 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
@@ -2076,31 +2169,34 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,60 +2333,66 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1048300</v>
+      </c>
+      <c r="E47" s="3">
         <v>968600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>924300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>818100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>680600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>503700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>332500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>260000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>178200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>134100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>80900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>45000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -2293,7 +2401,7 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
@@ -2305,7 +2413,7 @@
         <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
@@ -2317,10 +2425,13 @@
         <v>600</v>
       </c>
       <c r="P48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
       </c>
       <c r="K52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1301900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1219900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1107600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>987500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>866200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>726400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>536600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>395700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>264000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>219900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>142500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>94200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>74700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2689,14 +2823,14 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2704,55 +2838,61 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1196600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1124900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1001000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>886400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>748000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>629200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>488000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>350200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>246000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>195600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>111400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2834,21 +2977,24 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>19000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>1100</v>
@@ -2866,25 +3012,28 @@
         <v>1100</v>
       </c>
       <c r="K62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1241100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1149200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1027500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>905900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>780600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>640100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>511600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>369800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>255600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>205900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>127000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3204,13 +3372,16 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>1600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-37700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E76" s="3">
         <v>70800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>80100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>81600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>86300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1700</v>
       </c>
       <c r="M81" s="3">
         <v>-1700</v>
       </c>
       <c r="N81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>-500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-81300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>83800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,17 +4174,18 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-99900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-108100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-136400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-179300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-165200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E100" s="3">
         <v>115300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>109700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>122300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>120700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>199600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>130800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>113600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>47600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>157200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>29900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>60500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-30600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>61400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
@@ -764,91 +768,97 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>23800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>500</v>
       </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>-100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7500</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,26 +868,29 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>23800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,73 +1125,77 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>-3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,26 +1205,29 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>21400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,26 +1245,27 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1241,44 +1275,47 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1288,26 +1325,29 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>20600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1700</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,93 +1393,99 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1500</v>
       </c>
       <c r="N23" s="3">
         <v>-1500</v>
       </c>
       <c r="O23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>100</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1700</v>
       </c>
       <c r="N27" s="3">
         <v>-1700</v>
       </c>
       <c r="O27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,14 +1722,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,26 +1843,29 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1805,73 +1875,79 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1700</v>
       </c>
       <c r="N33" s="3">
         <v>-1700</v>
       </c>
       <c r="O33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1700</v>
       </c>
       <c r="N35" s="3">
         <v>-1700</v>
       </c>
       <c r="O35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E41" s="3">
         <v>144700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>142000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>81500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>151700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>136400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>75000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2160,7 +2253,7 @@
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
@@ -2172,31 +2265,34 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,66 +2438,72 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1200200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1048300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>968600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>924300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>818100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>680600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>503700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>332500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>260000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>178200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>134100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>80900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>45000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -2404,7 +2512,7 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -2416,7 +2524,7 @@
         <v>500</v>
       </c>
       <c r="M48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
@@ -2428,10 +2536,13 @@
         <v>600</v>
       </c>
       <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>1100</v>
       </c>
       <c r="L52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>19400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1301900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1219900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1107600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>987500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>866200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>726400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>536600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>395700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>264000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>219900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>142500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>94200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>74700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2826,14 +2960,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2841,58 +2975,64 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1333800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1196600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1124900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1001000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>886400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>748000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>629200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>488000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>350200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>246000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>195600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>111400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2980,24 +3123,27 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>19000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
@@ -3015,25 +3161,28 @@
         <v>1100</v>
       </c>
       <c r="L62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1383900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1241100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1149200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1027500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>905900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>780600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>640100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>511600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>369800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>255600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>205900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>127000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3375,13 +3543,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>1600</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-37700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E76" s="3">
         <v>60800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>70800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>80100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>81600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>85600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>86300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1700</v>
       </c>
       <c r="N81" s="3">
         <v>-1700</v>
       </c>
       <c r="O81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>10300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-81300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>83800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,20 +4395,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-182100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-99900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-108100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-136400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-179300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-165200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E100" s="3">
         <v>92200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>115300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>109700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>122300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>120700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>199600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>130800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>113600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>157200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>29900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E102" s="3">
         <v>2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-30600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>61400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -771,97 +775,103 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>23800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>500</v>
       </c>
       <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>-100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -871,26 +881,29 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>23800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,79 +1152,83 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E17" s="3">
         <v>-1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1208,26 +1238,29 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>21400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,29 +1279,30 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1278,47 +1312,50 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1328,26 +1365,29 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>20600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1700</v>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,99 +1436,105 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1500</v>
       </c>
       <c r="O23" s="3">
         <v>-1500</v>
       </c>
       <c r="P23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>100</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>9300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1700</v>
       </c>
       <c r="O27" s="3">
         <v>-1700</v>
       </c>
       <c r="P27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,14 +1786,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,29 +1913,32 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1878,76 +1948,82 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>9300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1700</v>
       </c>
       <c r="O33" s="3">
         <v>-1700</v>
       </c>
       <c r="P33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>9300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1700</v>
       </c>
       <c r="O35" s="3">
         <v>-1700</v>
       </c>
       <c r="P35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E41" s="3">
         <v>129000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>142000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>81500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>151700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>136400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>75000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2256,7 +2349,7 @@
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -2268,31 +2361,34 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,72 +2543,78 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1381700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1200200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1048300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>968600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>924300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>818100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>680600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>503700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>332500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>260000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>178200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>134100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>80900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>45000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2515,7 +2623,7 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -2527,7 +2635,7 @@
         <v>500</v>
       </c>
       <c r="N48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
@@ -2539,10 +2647,13 @@
         <v>600</v>
       </c>
       <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1100</v>
       </c>
       <c r="L52" s="3">
         <v>1100</v>
       </c>
       <c r="M52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>19400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1686100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1436000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1301900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1219900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1107600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>987500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>866200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>726400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>536600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>395700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>264000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>219900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>142500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>94200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2963,14 +3097,14 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -2978,61 +3112,67 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1609100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1333800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1196600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1124900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1001000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>886400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>748000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>629200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>488000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>350200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>246000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>195600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>111400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3126,13 +3269,16 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>19000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,11 +3288,11 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>1100</v>
@@ -3164,25 +3310,28 @@
         <v>1100</v>
       </c>
       <c r="M62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>19400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1654300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1383900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1241100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1149200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1027500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>905900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>780600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>640100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>511600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>369800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>255600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>205900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>127000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>77600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3546,13 +3714,16 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>1600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-41100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-37700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E76" s="3">
         <v>52100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>70800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>80100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>81600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>85600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>86300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>9300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1700</v>
       </c>
       <c r="O81" s="3">
         <v>-1700</v>
       </c>
       <c r="P81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E89" s="3">
         <v>25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-81300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>83800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,23 +4616,24 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-188700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-182100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-99900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-108100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-136400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-179300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-165200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E100" s="3">
         <v>141200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>92200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>115300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>109700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>122300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>120700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>199600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>130800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>113600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>157200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>29900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,113 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E8" s="3">
         <v>17200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -778,103 +781,109 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>23800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>500</v>
       </c>
       <c r="J9" s="3">
         <v>500</v>
       </c>
       <c r="K9" s="3">
+        <v>500</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>-100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E10" s="3">
         <v>16000</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -884,26 +893,29 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>23800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,85 +1178,89 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E17" s="3">
         <v>14300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2900</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1241,26 +1270,29 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>21400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,32 +1312,33 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1315,50 +1348,53 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1368,26 +1404,29 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>20600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1700</v>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,105 +1478,111 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1500</v>
       </c>
       <c r="P23" s="3">
         <v>-1500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>100</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1700</v>
       </c>
       <c r="P27" s="3">
         <v>-1700</v>
       </c>
       <c r="Q27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1789,14 +1849,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,32 +1982,35 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1951,79 +2020,85 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1700</v>
       </c>
       <c r="P33" s="3">
         <v>-1700</v>
       </c>
       <c r="Q33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1700</v>
       </c>
       <c r="P35" s="3">
         <v>-1700</v>
       </c>
       <c r="Q35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>191400</v>
+      </c>
+      <c r="E41" s="3">
         <v>208700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>142000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>70300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>151700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>136400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>75000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2352,7 +2444,7 @@
         <v>400</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -2364,31 +2456,34 @@
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>400</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
       <c r="P43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,78 +2647,84 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1609500</v>
+      </c>
+      <c r="E47" s="3">
         <v>1381700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1200200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1048300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>968600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>924300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>818100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>680600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>503700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>332500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>260000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>178200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>134100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>80900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>45000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -2626,7 +2733,7 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
@@ -2638,7 +2745,7 @@
         <v>500</v>
       </c>
       <c r="O48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
@@ -2650,15 +2757,18 @@
         <v>600</v>
       </c>
       <c r="S48" s="3">
+        <v>600</v>
+      </c>
+      <c r="T48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>700</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1100</v>
       </c>
       <c r="M52" s="3">
         <v>1100</v>
       </c>
       <c r="N52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>19400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1920400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1686100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1436000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1301900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1219900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1107600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>987500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>866200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>726400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>536600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>395700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>264000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>219900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>142500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>94200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3100,14 +3233,14 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3115,64 +3248,70 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1807300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1609100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1333800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1196600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1124900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1001000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>886400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>748000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>629200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>488000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>350200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>246000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>195600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>111400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,13 +3363,16 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3272,13 +3414,16 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>19000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,11 +3436,11 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
@@ -3313,25 +3458,28 @@
         <v>1100</v>
       </c>
       <c r="N62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1896500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1654300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1383900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1241100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1149200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1027500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>905900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>780600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>640100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>511600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>369800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>255600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>205900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>127000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>77500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,13 +3884,16 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>1600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-60700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-41100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-37700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-36800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E76" s="3">
         <v>31800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>70800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>81600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>85600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>86300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1700</v>
       </c>
       <c r="P81" s="3">
         <v>-1700</v>
       </c>
       <c r="Q81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E89" s="3">
         <v>29400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-81300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>83800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,26 +4836,27 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-188700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-182100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-99900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-108100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-136400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-179300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-165200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-68200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E100" s="3">
         <v>239100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>141200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>92200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>115300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>109700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>122300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>120700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>199600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>130800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>113600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>47600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>157200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>29900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E102" s="3">
         <v>79700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>49500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E8" s="3">
         <v>8100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -784,26 +788,29 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>23800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,82 +818,85 @@
         <v>1700</v>
       </c>
       <c r="E9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>500</v>
       </c>
       <c r="K9" s="3">
         <v>500</v>
       </c>
       <c r="L9" s="3">
+        <v>500</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E10" s="3">
         <v>6400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -896,26 +906,29 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>23800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,91 +1205,95 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E17" s="3">
         <v>12100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2900</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1273,26 +1303,29 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>21400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,35 +1346,36 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1351,53 +1385,56 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1407,26 +1444,29 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>20600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-1700</v>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,111 +1521,117 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-16100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q23" s="3">
         <v>-1500</v>
       </c>
       <c r="R23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3">
+        <v>100</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1700</v>
       </c>
       <c r="Q27" s="3">
         <v>-1700</v>
       </c>
       <c r="R27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,14 +1913,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,35 +2052,38 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2023,82 +2093,88 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1700</v>
       </c>
       <c r="Q33" s="3">
         <v>-1700</v>
       </c>
       <c r="R33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1700</v>
       </c>
       <c r="Q35" s="3">
         <v>-1700</v>
       </c>
       <c r="R35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>170100</v>
+      </c>
+      <c r="E41" s="3">
         <v>191400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>208700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>129000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>142000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>70300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>151700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>136400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>75000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,7 +2540,7 @@
         <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
@@ -2459,31 +2552,34 @@
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,84 +2752,90 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1809100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1609500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1381700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1200200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1048300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>968600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>924300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>818100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>680600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>503700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>332500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>260000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>178200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>134100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>80900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>45000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -2736,7 +2844,7 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
@@ -2748,7 +2856,7 @@
         <v>500</v>
       </c>
       <c r="P48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
@@ -2760,18 +2868,21 @@
         <v>600</v>
       </c>
       <c r="T48" s="3">
+        <v>600</v>
+      </c>
+      <c r="U48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>700</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1100</v>
       </c>
       <c r="N52" s="3">
         <v>1100</v>
       </c>
       <c r="O52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P52" s="3">
         <v>2500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>19400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2144500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1920400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1686100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1436000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1301900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1219900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1107600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>987500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>866200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>726400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>536600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>395700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>264000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>219900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>142500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>94200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>74700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3236,14 +3370,14 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3251,67 +3385,73 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2048400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1807300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1609100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1333800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1196600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1124900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1001000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>886400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>748000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>629200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>488000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>350200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>246000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>195600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>111400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>64900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,7 +3518,7 @@
         <v>25000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3417,13 +3560,16 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>19000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3439,11 +3585,11 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>1100</v>
@@ -3461,25 +3607,28 @@
         <v>1100</v>
       </c>
       <c r="O62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2131600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1896500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1654300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1383900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1241100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1149200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1027500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>905900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>780600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>640100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>511600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>369800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>255600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>205900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>127000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>77600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3887,13 +4055,16 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>1600</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-53300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-37700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E76" s="3">
         <v>23900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>60800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>80100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>81600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>85600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>86300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1700</v>
       </c>
       <c r="Q81" s="3">
         <v>-1700</v>
       </c>
       <c r="R81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>-100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E89" s="3">
         <v>8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-81300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>83800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,20 +5067,20 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-238000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-188700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-182100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-99900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-108100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-136400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-179300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-165200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-69800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-68200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E100" s="3">
         <v>212500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>239100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>141200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>92200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>115300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>109700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>122300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>120700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>199600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>130800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>113600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>47600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>157200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>29900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>79700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>60500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-50800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>61400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDWT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>MDWT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E8" s="3">
         <v>36800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
@@ -791,115 +795,121 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>23800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="3">
         <v>1700</v>
       </c>
       <c r="F9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>-100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E10" s="3">
         <v>35100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -909,26 +919,29 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>23800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,97 +1232,101 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E17" s="3">
         <v>29800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
         <v>7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,26 +1336,29 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>21400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,29 +1390,29 @@
         <v>1700</v>
       </c>
       <c r="E20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1388,56 +1422,59 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E21" s="3">
         <v>3700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1447,26 +1484,29 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>20600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-1700</v>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,117 +1564,123 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1500</v>
       </c>
       <c r="R23" s="3">
         <v>-1500</v>
       </c>
       <c r="S23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="S24" s="3">
+        <v>100</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1700</v>
       </c>
       <c r="R27" s="3">
         <v>-1700</v>
       </c>
       <c r="S27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,14 +1977,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,29 +2134,29 @@
         <v>-1700</v>
       </c>
       <c r="E32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2096,85 +2166,91 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1700</v>
       </c>
       <c r="R33" s="3">
         <v>-1700</v>
       </c>
       <c r="S33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1700</v>
       </c>
       <c r="R35" s="3">
         <v>-1700</v>
       </c>
       <c r="S35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E41" s="3">
         <v>170100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>191400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>208700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>129000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>142000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>151700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>136400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>75000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2543,7 +2636,7 @@
         <v>400</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
@@ -2555,31 +2648,34 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>400</v>
       </c>
       <c r="Q43" s="3">
         <v>400</v>
       </c>
       <c r="R43" s="3">
+        <v>400</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,67 +2857,73 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2050200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1809100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1609500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1381700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1200200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1048300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>968600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>924300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>818100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>680600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>503700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>332500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>260000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>178200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>134100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>80900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>45000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,22 +2931,22 @@
         <v>1800</v>
       </c>
       <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -2847,7 +2955,7 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
@@ -2859,7 +2967,7 @@
         <v>500</v>
       </c>
       <c r="Q48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R48" s="3">
         <v>600</v>
@@ -2871,10 +2979,13 @@
         <v>600</v>
       </c>
       <c r="U48" s="3">
+        <v>600</v>
+      </c>
+      <c r="V48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,8 +2995,8 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>700</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3061,56 +3181,59 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1100</v>
       </c>
       <c r="O52" s="3">
         <v>1100</v>
       </c>
       <c r="P52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>19400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2428000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2144500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1920400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1686100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1436000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1301900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1219900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1107600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>987500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>866200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>726400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>536600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>395700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>264000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>219900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>142500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>94200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3373,14 +3507,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3388,70 +3522,76 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2325700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2048400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1807300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1609100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1333800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1196600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1124900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1001000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>886400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>748000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>629200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>488000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>350200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>246000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>195600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>111400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>64900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3521,7 +3664,7 @@
         <v>25000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3563,13 +3706,16 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>19000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3588,11 +3734,11 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>1100</v>
@@ -3610,25 +3756,28 @@
         <v>1100</v>
       </c>
       <c r="P62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>19400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2414300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2131600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1896500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1654300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1383900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1241100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1149200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1027500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>905900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>780600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>640100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>511600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>369800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>255600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>205900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>127000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>77500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>77600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>69100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4058,13 +4226,16 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>1600</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-70200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-63200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-60100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-41600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-41100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-37700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E76" s="3">
         <v>12800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>70800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>80100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>81600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>85600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>86300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1700</v>
       </c>
       <c r="R81" s="3">
         <v>-1700</v>
       </c>
       <c r="S81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>4900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E89" s="3">
         <v>46400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-81300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>83800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,32 +5278,33 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-227600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-232800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-238000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-188700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-182100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-99900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-108100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-136400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-179300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-165200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-69800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E100" s="3">
         <v>165000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>212500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>239100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>141200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>92200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>115300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>109700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>122300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>120700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>199600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>130800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>113600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>47600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>157200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>29900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>79700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>60500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-50800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>61400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>49500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2300</v>
       </c>
     </row>
